--- a/Present data/analysis/vr_threshold_cs.xlsx
+++ b/Present data/analysis/vr_threshold_cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="122" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="150" uniqueCount="14">
   <si>
     <t>subID</t>
   </si>

--- a/Present data/analysis/vr_threshold_cs.xlsx
+++ b/Present data/analysis/vr_threshold_cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="150" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="248" uniqueCount="14">
   <si>
     <t>subID</t>
   </si>
@@ -106,10 +106,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="true"/>
-    <col min="2" max="2" width="16" customWidth="true"/>
-    <col min="3" max="3" width="15.88671875" customWidth="true"/>
-    <col min="4" max="4" width="15" customWidth="true"/>
+    <col min="1" max="1" width="11" customWidth="true"/>
+    <col min="2" max="2" width="17.5703125" customWidth="true"/>
+    <col min="3" max="3" width="17.5703125" customWidth="true"/>
+    <col min="4" max="4" width="16.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -159,7 +159,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>-1.4952948296523352</v>
+        <v>-1.495294829652335</v>
       </c>
       <c r="C4" s="0">
         <v>-1.3044633145439186</v>
@@ -176,7 +176,7 @@
         <v>-1.6386424466351837</v>
       </c>
       <c r="C5" s="0">
-        <v>-1.4585620028004802</v>
+        <v>-1.45856200280048</v>
       </c>
       <c r="D5" s="0">
         <v>-1.4451231637083382</v>
@@ -190,7 +190,7 @@
         <v>-1.4218291759486252</v>
       </c>
       <c r="C6" s="0">
-        <v>-1.3358206057589164</v>
+        <v>-1.3358206057589161</v>
       </c>
       <c r="D6" s="0">
         <v>-1.3600105161247722</v>
@@ -201,13 +201,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>-1.5786156320236158</v>
+        <v>-1.5786156320236155</v>
       </c>
       <c r="C7" s="0">
         <v>-1.3528431352756296</v>
       </c>
       <c r="D7" s="0">
-        <v>-1.3671778969739146</v>
+        <v>-1.3671778969739143</v>
       </c>
     </row>
     <row r="8">
@@ -218,7 +218,7 @@
         <v>1.4728967644987652</v>
       </c>
       <c r="C8" s="0">
-        <v>1.2238302799910667</v>
+        <v>1.2238302799910665</v>
       </c>
       <c r="D8" s="0">
         <v>1.3940555751581987</v>
@@ -263,7 +263,7 @@
         <v>1.3401184732921503</v>
       </c>
       <c r="D11" s="0">
-        <v>1.2368027442905718</v>
+        <v>1.236802744290572</v>
       </c>
     </row>
   </sheetData>

--- a/Present data/analysis/vr_threshold_cs.xlsx
+++ b/Present data/analysis/vr_threshold_cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="248" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="262" uniqueCount="14">
   <si>
     <t>subID</t>
   </si>

--- a/Present data/analysis/vr_threshold_cs.xlsx
+++ b/Present data/analysis/vr_threshold_cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="262" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="290" uniqueCount="14">
   <si>
     <t>subID</t>
   </si>
@@ -106,10 +106,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="true"/>
-    <col min="2" max="2" width="17.5703125" customWidth="true"/>
-    <col min="3" max="3" width="17.5703125" customWidth="true"/>
-    <col min="4" max="4" width="16.5703125" customWidth="true"/>
+    <col min="1" max="1" width="10.44140625" customWidth="true"/>
+    <col min="2" max="2" width="16" customWidth="true"/>
+    <col min="3" max="3" width="15.88671875" customWidth="true"/>
+    <col min="4" max="4" width="15" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -159,7 +159,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>-1.495294829652335</v>
+        <v>-1.4952948296523352</v>
       </c>
       <c r="C4" s="0">
         <v>-1.3044633145439186</v>
@@ -176,7 +176,7 @@
         <v>-1.6386424466351837</v>
       </c>
       <c r="C5" s="0">
-        <v>-1.45856200280048</v>
+        <v>-1.4585620028004802</v>
       </c>
       <c r="D5" s="0">
         <v>-1.4451231637083382</v>
@@ -190,7 +190,7 @@
         <v>-1.4218291759486252</v>
       </c>
       <c r="C6" s="0">
-        <v>-1.3358206057589161</v>
+        <v>-1.3358206057589164</v>
       </c>
       <c r="D6" s="0">
         <v>-1.3600105161247722</v>
@@ -201,13 +201,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="0">
-        <v>-1.5786156320236155</v>
+        <v>-1.5786156320236158</v>
       </c>
       <c r="C7" s="0">
         <v>-1.3528431352756296</v>
       </c>
       <c r="D7" s="0">
-        <v>-1.3671778969739143</v>
+        <v>-1.3671778969739146</v>
       </c>
     </row>
     <row r="8">
@@ -218,7 +218,7 @@
         <v>1.4728967644987652</v>
       </c>
       <c r="C8" s="0">
-        <v>1.2238302799910665</v>
+        <v>1.2238302799910667</v>
       </c>
       <c r="D8" s="0">
         <v>1.3940555751581987</v>
@@ -263,7 +263,7 @@
         <v>1.3401184732921503</v>
       </c>
       <c r="D11" s="0">
-        <v>1.236802744290572</v>
+        <v>1.2368027442905718</v>
       </c>
     </row>
   </sheetData>

--- a/Present data/analysis/vr_threshold_cs.xlsx
+++ b/Present data/analysis/vr_threshold_cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="262" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="514" uniqueCount="14">
   <si>
     <t>subID</t>
   </si>
